--- a/Automation/data/input.xlsx
+++ b/Automation/data/input.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C1:C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
